--- a/m1/unidad3/Practicas/20191030/El Gordo de la Navidad.xlsx
+++ b/m1/unidad3/Practicas/20191030/El Gordo de la Navidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>NÚMERO</t>
   </si>
@@ -55,12 +55,6 @@
   <si>
     <t>CONVERTIR 
 EN NÚMERO</t>
-  </si>
-  <si>
-    <t>rojo numero mas grande</t>
-  </si>
-  <si>
-    <t>verde numero mas grande</t>
   </si>
 </sst>
 </file>
@@ -415,6 +409,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -436,23 +442,60 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -865,11 +908,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P208"/>
+  <dimension ref="A1:K208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,7 +926,7 @@
     <col min="10" max="10" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -903,14 +946,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1812</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="23">
         <v>3604</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="22">
         <f>LEN(B2)</f>
         <v>4</v>
       </c>
@@ -922,15 +965,18 @@
         <f>RIGHT(B2,1)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G2" s="21">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1813</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="23">
         <v>8553</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="22">
         <f t="shared" ref="C3:C66" si="0">LEN(B3)</f>
         <v>4</v>
       </c>
@@ -942,18 +988,18 @@
         <f t="shared" ref="F3:F66" si="1">RIGHT(B3,1)</f>
         <v>3</v>
       </c>
-      <c r="P3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G3" s="21">
+        <v>8553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1814</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="23">
         <v>23892</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -965,18 +1011,18 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G4" s="21">
+        <v>23892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1815</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="23">
         <v>33466</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -988,15 +1034,18 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="21">
+        <v>33466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1816</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="23">
         <v>34503</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1008,15 +1057,18 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G6" s="21">
+        <v>34503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1817</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="23">
         <v>32026</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1028,20 +1080,23 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="21">
+        <v>32026</v>
+      </c>
+      <c r="H7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1818</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="23">
         <v>8705</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1053,19 +1108,22 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
+      <c r="G8" s="21">
+        <v>8705</v>
+      </c>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>1819</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="23">
         <v>15389</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1077,24 +1135,27 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H9" s="28">
+      <c r="G9" s="21">
+        <v>15389</v>
+      </c>
+      <c r="H9" s="36">
         <v>0</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
       <c r="K9" s="10">
         <f>COUNTIF(F2:F208,H9)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>1820</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="23">
         <v>2457</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1106,24 +1167,27 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H10" s="31">
+      <c r="G10" s="21">
+        <v>2457</v>
+      </c>
+      <c r="H10" s="27">
         <v>1</v>
       </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="33"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
       <c r="K10" s="11">
         <f t="shared" ref="K10:K18" si="3">COUNTIF(F3:F209,H10)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1821</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="23">
         <v>8364</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1135,24 +1199,27 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H11" s="31">
+      <c r="G11" s="21">
+        <v>8364</v>
+      </c>
+      <c r="H11" s="27">
         <v>2</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
       <c r="K11" s="11">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1822</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="23">
         <v>9311</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1164,24 +1231,27 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H12" s="31">
+      <c r="G12" s="21">
+        <v>9311</v>
+      </c>
+      <c r="H12" s="27">
         <v>3</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
       <c r="K12" s="11">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>1823</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="23">
         <v>1879</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1193,24 +1263,27 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="H13" s="31">
-        <v>4</v>
-      </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
+      <c r="G13" s="21">
+        <v>1879</v>
+      </c>
+      <c r="H13" s="27">
+        <v>4</v>
+      </c>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29"/>
       <c r="K13" s="11">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>1824</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="23">
         <v>2124</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1222,24 +1295,27 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H14" s="31">
-        <v>5</v>
-      </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="33"/>
+      <c r="G14" s="21">
+        <v>2124</v>
+      </c>
+      <c r="H14" s="27">
+        <v>5</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
       <c r="K14" s="11">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1825</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="23">
         <v>9275</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1251,24 +1327,27 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H15" s="31">
+      <c r="G15" s="21">
+        <v>9275</v>
+      </c>
+      <c r="H15" s="27">
         <v>6</v>
       </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="33"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
       <c r="K15" s="11">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1826</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="23">
         <v>14544</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1280,11 +1359,14 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H16" s="31">
+      <c r="G16" s="21">
+        <v>14544</v>
+      </c>
+      <c r="H16" s="27">
         <v>7</v>
       </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
       <c r="K16" s="11">
         <f t="shared" si="3"/>
         <v>20</v>
@@ -1294,10 +1376,10 @@
       <c r="A17" s="4">
         <v>1827</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="23">
         <v>6835</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1309,11 +1391,14 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H17" s="31">
+      <c r="G17" s="21">
+        <v>6835</v>
+      </c>
+      <c r="H17" s="27">
         <v>8</v>
       </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
       <c r="K17" s="11">
         <f t="shared" si="3"/>
         <v>22</v>
@@ -1323,10 +1408,10 @@
       <c r="A18" s="4">
         <v>1828</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1338,11 +1423,14 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H18" s="34">
+      <c r="G18" s="21">
+        <v>523</v>
+      </c>
+      <c r="H18" s="24">
         <v>9</v>
       </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="36"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
       <c r="K18" s="12">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -1352,10 +1440,10 @@
       <c r="A19" s="4">
         <v>1829</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="23">
         <v>2127</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1366,16 +1454,19 @@
       <c r="F19" s="21" t="str">
         <f t="shared" si="1"/>
         <v>7</v>
+      </c>
+      <c r="G19" s="21">
+        <v>2127</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>1830</v>
       </c>
-      <c r="B20" s="38">
+      <c r="B20" s="23">
         <v>2652</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1386,16 +1477,19 @@
       <c r="F20" s="21" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
+      </c>
+      <c r="G20" s="21">
+        <v>2652</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1831</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="23">
         <v>1490</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1406,16 +1500,19 @@
       <c r="F21" s="21" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="G21" s="21">
+        <v>1490</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1832</v>
       </c>
-      <c r="B22" s="38">
+      <c r="B22" s="23">
         <v>8318</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1426,16 +1523,19 @@
       <c r="F22" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8</v>
+      </c>
+      <c r="G22" s="21">
+        <v>8318</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>1833</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="23">
         <v>7589</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1446,16 +1546,19 @@
       <c r="F23" s="21" t="str">
         <f t="shared" si="1"/>
         <v>9</v>
+      </c>
+      <c r="G23" s="21">
+        <v>7589</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>1834</v>
       </c>
-      <c r="B24" s="38">
+      <c r="B24" s="23">
         <v>9703</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1466,16 +1569,19 @@
       <c r="F24" s="21" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
+      </c>
+      <c r="G24" s="21">
+        <v>9703</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>1835</v>
       </c>
-      <c r="B25" s="38">
+      <c r="B25" s="23">
         <v>7175</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1486,16 +1592,19 @@
       <c r="F25" s="21" t="str">
         <f t="shared" si="1"/>
         <v>5</v>
+      </c>
+      <c r="G25" s="21">
+        <v>7175</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1836</v>
       </c>
-      <c r="B26" s="38">
+      <c r="B26" s="23">
         <v>7102</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1506,16 +1615,19 @@
       <c r="F26" s="21" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
+      </c>
+      <c r="G26" s="21">
+        <v>7102</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1837</v>
       </c>
-      <c r="B27" s="38">
+      <c r="B27" s="23">
         <v>3616</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1526,16 +1638,19 @@
       <c r="F27" s="21" t="str">
         <f t="shared" si="1"/>
         <v>6</v>
+      </c>
+      <c r="G27" s="21">
+        <v>3616</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>1837</v>
       </c>
-      <c r="B28" s="38">
+      <c r="B28" s="23">
         <v>10998</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1546,16 +1661,19 @@
       <c r="F28" s="21" t="str">
         <f t="shared" si="1"/>
         <v>8</v>
+      </c>
+      <c r="G28" s="21">
+        <v>10998</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>1838</v>
       </c>
-      <c r="B29" s="38">
+      <c r="B29" s="23">
         <v>6094</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1566,16 +1684,19 @@
       <c r="F29" s="21" t="str">
         <f t="shared" si="1"/>
         <v>4</v>
+      </c>
+      <c r="G29" s="21">
+        <v>6094</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1839</v>
       </c>
-      <c r="B30" s="38">
+      <c r="B30" s="23">
         <v>1833</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1586,16 +1707,19 @@
       <c r="F30" s="21" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
+      </c>
+      <c r="G30" s="21">
+        <v>1833</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1840</v>
       </c>
-      <c r="B31" s="38">
+      <c r="B31" s="23">
         <v>1660</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1606,16 +1730,19 @@
       <c r="F31" s="21" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="G31" s="21">
+        <v>1660</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>1841</v>
       </c>
-      <c r="B32" s="38">
+      <c r="B32" s="23">
         <v>6585</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1627,15 +1754,18 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="21">
+        <v>6585</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>1842</v>
       </c>
-      <c r="B33" s="38">
+      <c r="B33" s="23">
         <v>5228</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1647,15 +1777,18 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="21">
+        <v>5228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1843</v>
       </c>
-      <c r="B34" s="38">
+      <c r="B34" s="23">
         <v>9975</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1667,15 +1800,18 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="21">
+        <v>9975</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1844</v>
       </c>
-      <c r="B35" s="38">
+      <c r="B35" s="23">
         <v>7312</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1687,15 +1823,18 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="21">
+        <v>7312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>1845</v>
       </c>
-      <c r="B36" s="38">
+      <c r="B36" s="23">
         <v>13046</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1707,15 +1846,18 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="21">
+        <v>13046</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1846</v>
       </c>
-      <c r="B37" s="38">
+      <c r="B37" s="23">
         <v>4457</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1727,15 +1869,18 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="21">
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>1847</v>
       </c>
-      <c r="B38" s="38">
+      <c r="B38" s="23">
         <v>13656</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1747,15 +1892,18 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="21">
+        <v>13656</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>1848</v>
       </c>
-      <c r="B39" s="38">
+      <c r="B39" s="23">
         <v>1474</v>
       </c>
-      <c r="C39" s="37">
+      <c r="C39" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1767,15 +1915,18 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="21">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>1849</v>
       </c>
-      <c r="B40" s="38">
+      <c r="B40" s="23">
         <v>12724</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1787,15 +1938,18 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="21">
+        <v>12724</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>1850</v>
       </c>
-      <c r="B41" s="38">
+      <c r="B41" s="23">
         <v>12223</v>
       </c>
-      <c r="C41" s="37">
+      <c r="C41" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1807,15 +1961,18 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="21">
+        <v>12223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>1851</v>
       </c>
-      <c r="B42" s="38">
+      <c r="B42" s="23">
         <v>12105</v>
       </c>
-      <c r="C42" s="37">
+      <c r="C42" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1827,15 +1984,18 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="21">
+        <v>12105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>1852</v>
       </c>
-      <c r="B43" s="38">
+      <c r="B43" s="23">
         <v>11528</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C43" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1847,15 +2007,18 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="21">
+        <v>11528</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>1853</v>
       </c>
-      <c r="B44" s="38">
+      <c r="B44" s="23">
         <v>16673</v>
       </c>
-      <c r="C44" s="37">
+      <c r="C44" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1867,15 +2030,18 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="21">
+        <v>16673</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>1854</v>
       </c>
-      <c r="B45" s="38">
+      <c r="B45" s="23">
         <v>14938</v>
       </c>
-      <c r="C45" s="37">
+      <c r="C45" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1887,15 +2053,18 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="21">
+        <v>14938</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>1855</v>
       </c>
-      <c r="B46" s="38">
+      <c r="B46" s="23">
         <v>15406</v>
       </c>
-      <c r="C46" s="37">
+      <c r="C46" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1907,15 +2076,18 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="21">
+        <v>15406</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>1856</v>
       </c>
-      <c r="B47" s="38">
+      <c r="B47" s="23">
         <v>13094</v>
       </c>
-      <c r="C47" s="37">
+      <c r="C47" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1927,15 +2099,18 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="21">
+        <v>13094</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>1857</v>
       </c>
-      <c r="B48" s="38">
+      <c r="B48" s="23">
         <v>2147</v>
       </c>
-      <c r="C48" s="37">
+      <c r="C48" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1947,15 +2122,18 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="21">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>1858</v>
       </c>
-      <c r="B49" s="38">
+      <c r="B49" s="23">
         <v>12085</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1967,15 +2145,18 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="21">
+        <v>12085</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>1859</v>
       </c>
-      <c r="B50" s="38">
+      <c r="B50" s="23">
         <v>18400</v>
       </c>
-      <c r="C50" s="37">
+      <c r="C50" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1987,15 +2168,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="21">
+        <v>18400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>1860</v>
       </c>
-      <c r="B51" s="38">
+      <c r="B51" s="23">
         <v>20563</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2007,15 +2191,18 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="21">
+        <v>20563</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>1861</v>
       </c>
-      <c r="B52" s="38">
+      <c r="B52" s="23">
         <v>23033</v>
       </c>
-      <c r="C52" s="37">
+      <c r="C52" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2027,15 +2214,18 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="21">
+        <v>23033</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>1862</v>
       </c>
-      <c r="B53" s="38">
+      <c r="B53" s="23">
         <v>4036</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2047,15 +2237,18 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="21">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>1863</v>
       </c>
-      <c r="B54" s="38">
+      <c r="B54" s="23">
         <v>3224</v>
       </c>
-      <c r="C54" s="37">
+      <c r="C54" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2067,15 +2260,18 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="21">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>1864</v>
       </c>
-      <c r="B55" s="38">
+      <c r="B55" s="23">
         <v>18968</v>
       </c>
-      <c r="C55" s="37">
+      <c r="C55" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2087,15 +2283,18 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="21">
+        <v>18968</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>1865</v>
       </c>
-      <c r="B56" s="38">
+      <c r="B56" s="23">
         <v>1603</v>
       </c>
-      <c r="C56" s="37">
+      <c r="C56" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2107,15 +2306,18 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="21">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>1866</v>
       </c>
-      <c r="B57" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="37">
+      <c r="B57" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2127,15 +2329,18 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="21">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>1867</v>
       </c>
-      <c r="B58" s="38">
+      <c r="B58" s="23">
         <v>14985</v>
       </c>
-      <c r="C58" s="37">
+      <c r="C58" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2147,15 +2352,18 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="21">
+        <v>14985</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>1868</v>
       </c>
-      <c r="B59" s="38">
+      <c r="B59" s="23">
         <v>4385</v>
       </c>
-      <c r="C59" s="37">
+      <c r="C59" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2167,15 +2375,18 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="21">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>1869</v>
       </c>
-      <c r="B60" s="38">
+      <c r="B60" s="23">
         <v>18875</v>
       </c>
-      <c r="C60" s="37">
+      <c r="C60" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2187,15 +2398,18 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="21">
+        <v>18875</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>1870</v>
       </c>
-      <c r="B61" s="38">
+      <c r="B61" s="23">
         <v>9914</v>
       </c>
-      <c r="C61" s="37">
+      <c r="C61" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2207,15 +2421,18 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="21">
+        <v>9914</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>1871</v>
       </c>
-      <c r="B62" s="38">
+      <c r="B62" s="23">
         <v>9457</v>
       </c>
-      <c r="C62" s="37">
+      <c r="C62" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2227,15 +2444,18 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="21">
+        <v>9457</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>1872</v>
       </c>
-      <c r="B63" s="38">
+      <c r="B63" s="23">
         <v>16374</v>
       </c>
-      <c r="C63" s="37">
+      <c r="C63" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2247,15 +2467,18 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="21">
+        <v>16374</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>1873</v>
       </c>
-      <c r="B64" s="38">
+      <c r="B64" s="23">
         <v>10014</v>
       </c>
-      <c r="C64" s="37">
+      <c r="C64" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -2267,15 +2490,18 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="21">
+        <v>10014</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>1874</v>
       </c>
-      <c r="B65" s="38">
+      <c r="B65" s="23">
         <v>9452</v>
       </c>
-      <c r="C65" s="37">
+      <c r="C65" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2287,15 +2513,18 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="21">
+        <v>9452</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>1875</v>
       </c>
-      <c r="B66" s="38">
+      <c r="B66" s="23">
         <v>7932</v>
       </c>
-      <c r="C66" s="37">
+      <c r="C66" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2307,15 +2536,18 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="21">
+        <v>7932</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>1876</v>
       </c>
-      <c r="B67" s="38">
+      <c r="B67" s="23">
         <v>21690</v>
       </c>
-      <c r="C67" s="37">
+      <c r="C67" s="22">
         <f t="shared" ref="C67:C130" si="4">LEN(B67)</f>
         <v>5</v>
       </c>
@@ -2327,15 +2559,18 @@
         <f t="shared" ref="F67:F130" si="5">RIGHT(B67,1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="21">
+        <v>21690</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>1877</v>
       </c>
-      <c r="B68" s="38">
+      <c r="B68" s="23">
         <v>12797</v>
       </c>
-      <c r="C68" s="37">
+      <c r="C68" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2347,15 +2582,18 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="21">
+        <v>12797</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>1878</v>
       </c>
-      <c r="B69" s="38">
+      <c r="B69" s="23">
         <v>6157</v>
       </c>
-      <c r="C69" s="37">
+      <c r="C69" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -2367,15 +2605,18 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="21">
+        <v>6157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>1879</v>
       </c>
-      <c r="B70" s="38">
+      <c r="B70" s="23">
         <v>25018</v>
       </c>
-      <c r="C70" s="37">
+      <c r="C70" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2387,15 +2628,18 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="21">
+        <v>25018</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>1880</v>
       </c>
-      <c r="B71" s="38">
+      <c r="B71" s="23">
         <v>35999</v>
       </c>
-      <c r="C71" s="37">
+      <c r="C71" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2407,15 +2651,18 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="21">
+        <v>35999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>1881</v>
       </c>
-      <c r="B72" s="38">
+      <c r="B72" s="23">
         <v>17057</v>
       </c>
-      <c r="C72" s="37">
+      <c r="C72" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2427,15 +2674,18 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="21">
+        <v>17057</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>1882</v>
       </c>
-      <c r="B73" s="38">
+      <c r="B73" s="23">
         <v>6679</v>
       </c>
-      <c r="C73" s="37">
+      <c r="C73" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -2447,15 +2697,18 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="21">
+        <v>6679</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>1883</v>
       </c>
-      <c r="B74" s="38">
+      <c r="B74" s="23">
         <v>38608</v>
       </c>
-      <c r="C74" s="37">
+      <c r="C74" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2467,15 +2720,18 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="21">
+        <v>38608</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>1884</v>
       </c>
-      <c r="B75" s="38">
+      <c r="B75" s="23">
         <v>14292</v>
       </c>
-      <c r="C75" s="37">
+      <c r="C75" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2487,15 +2743,18 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="21">
+        <v>14292</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>1885</v>
       </c>
-      <c r="B76" s="38">
+      <c r="B76" s="23">
         <v>45488</v>
       </c>
-      <c r="C76" s="37">
+      <c r="C76" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2507,15 +2766,18 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="21">
+        <v>45488</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>1886</v>
       </c>
-      <c r="B77" s="38">
+      <c r="B77" s="23">
         <v>6695</v>
       </c>
-      <c r="C77" s="37">
+      <c r="C77" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -2527,15 +2789,18 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="21">
+        <v>6695</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>1887</v>
       </c>
-      <c r="B78" s="38">
+      <c r="B78" s="23">
         <v>24566</v>
       </c>
-      <c r="C78" s="37">
+      <c r="C78" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2547,15 +2812,18 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="21">
+        <v>24566</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>1888</v>
       </c>
-      <c r="B79" s="38">
+      <c r="B79" s="23">
         <v>4211</v>
       </c>
-      <c r="C79" s="37">
+      <c r="C79" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -2567,15 +2835,18 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="21">
+        <v>4211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>1889</v>
       </c>
-      <c r="B80" s="38">
+      <c r="B80" s="23">
         <v>45400</v>
       </c>
-      <c r="C80" s="37">
+      <c r="C80" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2587,15 +2858,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="21">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>1890</v>
       </c>
-      <c r="B81" s="38">
+      <c r="B81" s="23">
         <v>15020</v>
       </c>
-      <c r="C81" s="37">
+      <c r="C81" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2607,15 +2881,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="21">
+        <v>15020</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>1891</v>
       </c>
-      <c r="B82" s="38">
+      <c r="B82" s="23">
         <v>33558</v>
       </c>
-      <c r="C82" s="37">
+      <c r="C82" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2627,15 +2904,18 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="21">
+        <v>33558</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>1892</v>
       </c>
-      <c r="B83" s="38">
+      <c r="B83" s="23">
         <v>40297</v>
       </c>
-      <c r="C83" s="37">
+      <c r="C83" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2647,15 +2927,18 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="21">
+        <v>40297</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>1893</v>
       </c>
-      <c r="B84" s="38">
+      <c r="B84" s="23">
         <v>31892</v>
       </c>
-      <c r="C84" s="37">
+      <c r="C84" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2667,15 +2950,18 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="21">
+        <v>31892</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>1894</v>
       </c>
-      <c r="B85" s="38">
+      <c r="B85" s="23">
         <v>8653</v>
       </c>
-      <c r="C85" s="37">
+      <c r="C85" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -2687,15 +2973,18 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="21">
+        <v>8653</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>1895</v>
       </c>
-      <c r="B86" s="38">
+      <c r="B86" s="23">
         <v>25444</v>
       </c>
-      <c r="C86" s="37">
+      <c r="C86" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2707,15 +2996,18 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="21">
+        <v>25444</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>1896</v>
       </c>
-      <c r="B87" s="38">
+      <c r="B87" s="23">
         <v>8669</v>
       </c>
-      <c r="C87" s="37">
+      <c r="C87" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -2727,15 +3019,18 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="21">
+        <v>8669</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>1897</v>
       </c>
-      <c r="B88" s="38">
+      <c r="B88" s="23">
         <v>13515</v>
       </c>
-      <c r="C88" s="37">
+      <c r="C88" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2747,15 +3042,18 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="21">
+        <v>13515</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>1898</v>
       </c>
-      <c r="B89" s="38">
+      <c r="B89" s="23">
         <v>52761</v>
       </c>
-      <c r="C89" s="37">
+      <c r="C89" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2767,15 +3065,18 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="21">
+        <v>52761</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>1899</v>
       </c>
-      <c r="B90" s="38">
+      <c r="B90" s="23">
         <v>12515</v>
       </c>
-      <c r="C90" s="37">
+      <c r="C90" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2787,15 +3088,18 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="21">
+        <v>12515</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>1900</v>
       </c>
-      <c r="B91" s="38">
+      <c r="B91" s="23">
         <v>26285</v>
       </c>
-      <c r="C91" s="37">
+      <c r="C91" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2807,15 +3111,18 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="21">
+        <v>26285</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>1901</v>
       </c>
-      <c r="B92" s="38">
+      <c r="B92" s="23">
         <v>30565</v>
       </c>
-      <c r="C92" s="37">
+      <c r="C92" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2827,15 +3134,18 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="21">
+        <v>30565</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>1902</v>
       </c>
-      <c r="B93" s="38">
+      <c r="B93" s="23">
         <v>28038</v>
       </c>
-      <c r="C93" s="37">
+      <c r="C93" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2847,15 +3157,18 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="21">
+        <v>28038</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>1903</v>
       </c>
-      <c r="B94" s="38">
+      <c r="B94" s="23">
         <v>20297</v>
       </c>
-      <c r="C94" s="37">
+      <c r="C94" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2867,15 +3180,18 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="21">
+        <v>20297</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>1904</v>
       </c>
-      <c r="B95" s="38">
+      <c r="B95" s="23">
         <v>15162</v>
       </c>
-      <c r="C95" s="37">
+      <c r="C95" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2887,15 +3203,18 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="21">
+        <v>15162</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>1905</v>
       </c>
-      <c r="B96" s="38">
+      <c r="B96" s="23">
         <v>32865</v>
       </c>
-      <c r="C96" s="37">
+      <c r="C96" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2907,15 +3226,18 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="21">
+        <v>32865</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>1906</v>
       </c>
-      <c r="B97" s="38">
+      <c r="B97" s="23">
         <v>34746</v>
       </c>
-      <c r="C97" s="37">
+      <c r="C97" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2927,15 +3249,18 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="21">
+        <v>34746</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>1907</v>
       </c>
-      <c r="B98" s="38">
+      <c r="B98" s="23">
         <v>2048</v>
       </c>
-      <c r="C98" s="37">
+      <c r="C98" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -2947,15 +3272,18 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="21">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>1908</v>
       </c>
-      <c r="B99" s="38">
+      <c r="B99" s="23">
         <v>35819</v>
       </c>
-      <c r="C99" s="37">
+      <c r="C99" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2967,15 +3295,18 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="21">
+        <v>35819</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>1909</v>
       </c>
-      <c r="B100" s="38">
+      <c r="B100" s="23">
         <v>24056</v>
       </c>
-      <c r="C100" s="37">
+      <c r="C100" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -2987,15 +3318,18 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="21">
+        <v>24056</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>1910</v>
       </c>
-      <c r="B101" s="38">
+      <c r="B101" s="23">
         <v>22101</v>
       </c>
-      <c r="C101" s="37">
+      <c r="C101" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -3007,15 +3341,18 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" s="21">
+        <v>22101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>1911</v>
       </c>
-      <c r="B102" s="38">
+      <c r="B102" s="23">
         <v>3884</v>
       </c>
-      <c r="C102" s="37">
+      <c r="C102" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -3027,15 +3364,18 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="21">
+        <v>3884</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>1912</v>
       </c>
-      <c r="B103" s="38">
+      <c r="B103" s="23">
         <v>10644</v>
       </c>
-      <c r="C103" s="37">
+      <c r="C103" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -3047,15 +3387,18 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" s="21">
+        <v>10644</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>1913</v>
       </c>
-      <c r="B104" s="38">
+      <c r="B104" s="23">
         <v>18073</v>
       </c>
-      <c r="C104" s="37">
+      <c r="C104" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -3067,15 +3410,18 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="21">
+        <v>18073</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>1914</v>
       </c>
-      <c r="B105" s="38">
+      <c r="B105" s="23">
         <v>50047</v>
       </c>
-      <c r="C105" s="37">
+      <c r="C105" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -3087,15 +3433,18 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" s="21">
+        <v>50047</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>1915</v>
       </c>
-      <c r="B106" s="38">
+      <c r="B106" s="23">
         <v>48685</v>
       </c>
-      <c r="C106" s="37">
+      <c r="C106" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -3107,15 +3456,18 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" s="21">
+        <v>48685</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>1916</v>
       </c>
-      <c r="B107" s="38">
+      <c r="B107" s="23">
         <v>19158</v>
       </c>
-      <c r="C107" s="37">
+      <c r="C107" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -3127,15 +3479,18 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" s="21">
+        <v>19158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>1917</v>
       </c>
-      <c r="B108" s="38">
+      <c r="B108" s="23">
         <v>2091</v>
       </c>
-      <c r="C108" s="37">
+      <c r="C108" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -3147,15 +3502,18 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" s="21">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>1918</v>
       </c>
-      <c r="B109" s="38">
+      <c r="B109" s="23">
         <v>5605</v>
       </c>
-      <c r="C109" s="37">
+      <c r="C109" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -3167,15 +3525,18 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" s="21">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>1919</v>
       </c>
-      <c r="B110" s="38">
+      <c r="B110" s="23">
         <v>53452</v>
       </c>
-      <c r="C110" s="37">
+      <c r="C110" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -3187,15 +3548,18 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" s="21">
+        <v>53452</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>1920</v>
       </c>
-      <c r="B111" s="38">
+      <c r="B111" s="23">
         <v>9053</v>
       </c>
-      <c r="C111" s="37">
+      <c r="C111" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -3207,15 +3571,18 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" s="21">
+        <v>9053</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>1921</v>
       </c>
-      <c r="B112" s="38">
+      <c r="B112" s="23">
         <v>28876</v>
       </c>
-      <c r="C112" s="37">
+      <c r="C112" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -3227,15 +3594,18 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" s="21">
+        <v>28876</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>1922</v>
       </c>
-      <c r="B113" s="38">
+      <c r="B113" s="23">
         <v>46460</v>
       </c>
-      <c r="C113" s="37">
+      <c r="C113" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -3247,15 +3617,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" s="21">
+        <v>46460</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>1923</v>
       </c>
-      <c r="B114" s="38">
+      <c r="B114" s="23">
         <v>18398</v>
       </c>
-      <c r="C114" s="37">
+      <c r="C114" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -3267,15 +3640,18 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" s="21">
+        <v>18398</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>1924</v>
       </c>
-      <c r="B115" s="38">
+      <c r="B115" s="23">
         <v>15770</v>
       </c>
-      <c r="C115" s="37">
+      <c r="C115" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -3287,15 +3663,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" s="21">
+        <v>15770</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>1925</v>
       </c>
-      <c r="B116" s="38">
+      <c r="B116" s="23">
         <v>11519</v>
       </c>
-      <c r="C116" s="37">
+      <c r="C116" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -3307,15 +3686,18 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116" s="21">
+        <v>11519</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>1926</v>
       </c>
-      <c r="B117" s="38">
+      <c r="B117" s="23">
         <v>17229</v>
       </c>
-      <c r="C117" s="37">
+      <c r="C117" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -3327,15 +3709,18 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117" s="21">
+        <v>17229</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>1927</v>
       </c>
-      <c r="B118" s="38">
+      <c r="B118" s="23">
         <v>10123</v>
       </c>
-      <c r="C118" s="37">
+      <c r="C118" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -3347,15 +3732,18 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118" s="21">
+        <v>10123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>1928</v>
       </c>
-      <c r="B119" s="38">
+      <c r="B119" s="23">
         <v>6692</v>
       </c>
-      <c r="C119" s="37">
+      <c r="C119" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -3367,15 +3755,18 @@
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119" s="21">
+        <v>6692</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>1929</v>
       </c>
-      <c r="B120" s="38">
+      <c r="B120" s="23">
         <v>53453</v>
       </c>
-      <c r="C120" s="37">
+      <c r="C120" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -3387,15 +3778,18 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120" s="21">
+        <v>53453</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>1930</v>
       </c>
-      <c r="B121" s="38">
+      <c r="B121" s="23">
         <v>24630</v>
       </c>
-      <c r="C121" s="37">
+      <c r="C121" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -3407,15 +3801,18 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121" s="21">
+        <v>24630</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>1931</v>
       </c>
-      <c r="B122" s="38">
+      <c r="B122" s="23">
         <v>24717</v>
       </c>
-      <c r="C122" s="37">
+      <c r="C122" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -3427,15 +3824,18 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122" s="21">
+        <v>24717</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>1932</v>
       </c>
-      <c r="B123" s="38">
+      <c r="B123" s="23">
         <v>29757</v>
       </c>
-      <c r="C123" s="37">
+      <c r="C123" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -3447,15 +3847,18 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123" s="21">
+        <v>29757</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>1933</v>
       </c>
-      <c r="B124" s="38">
+      <c r="B124" s="23">
         <v>7139</v>
       </c>
-      <c r="C124" s="37">
+      <c r="C124" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -3467,15 +3870,18 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124" s="21">
+        <v>7139</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>1934</v>
       </c>
-      <c r="B125" s="38">
+      <c r="B125" s="23">
         <v>2686</v>
       </c>
-      <c r="C125" s="37">
+      <c r="C125" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -3487,15 +3893,18 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125" s="21">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>1935</v>
       </c>
-      <c r="B126" s="38">
+      <c r="B126" s="23">
         <v>25888</v>
       </c>
-      <c r="C126" s="37">
+      <c r="C126" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -3507,15 +3916,18 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126" s="21">
+        <v>25888</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>1936</v>
       </c>
-      <c r="B127" s="38">
+      <c r="B127" s="23">
         <v>5287</v>
       </c>
-      <c r="C127" s="37">
+      <c r="C127" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -3527,15 +3939,18 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" s="21">
+        <v>5287</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>1937</v>
       </c>
-      <c r="B128" s="38">
+      <c r="B128" s="23">
         <v>1165</v>
       </c>
-      <c r="C128" s="37">
+      <c r="C128" s="22">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -3547,15 +3962,18 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" s="21">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>1938</v>
       </c>
-      <c r="B129" s="38">
+      <c r="B129" s="23">
         <v>22655</v>
       </c>
-      <c r="C129" s="37">
+      <c r="C129" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -3567,15 +3985,18 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" s="21">
+        <v>22655</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>1938</v>
       </c>
-      <c r="B130" s="38">
+      <c r="B130" s="23">
         <v>36758</v>
       </c>
-      <c r="C130" s="37">
+      <c r="C130" s="22">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -3587,15 +4008,18 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" s="21">
+        <v>36758</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>1939</v>
       </c>
-      <c r="B131" s="38">
+      <c r="B131" s="23">
         <v>13093</v>
       </c>
-      <c r="C131" s="37">
+      <c r="C131" s="22">
         <f t="shared" ref="C131:C194" si="7">LEN(B131)</f>
         <v>5</v>
       </c>
@@ -3607,15 +4031,18 @@
         <f t="shared" ref="F131:F194" si="8">RIGHT(B131,1)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" s="21">
+        <v>13093</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>1940</v>
       </c>
-      <c r="B132" s="38">
+      <c r="B132" s="23">
         <v>43944</v>
       </c>
-      <c r="C132" s="37">
+      <c r="C132" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -3627,15 +4054,18 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132" s="21">
+        <v>43944</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>1941</v>
       </c>
-      <c r="B133" s="38">
+      <c r="B133" s="23">
         <v>58856</v>
       </c>
-      <c r="C133" s="37">
+      <c r="C133" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -3647,15 +4077,18 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133" s="21">
+        <v>58856</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>1942</v>
       </c>
-      <c r="B134" s="38">
+      <c r="B134" s="23">
         <v>9029</v>
       </c>
-      <c r="C134" s="37">
+      <c r="C134" s="22">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -3667,15 +4100,18 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134" s="21">
+        <v>9029</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>1943</v>
       </c>
-      <c r="B135" s="38">
+      <c r="B135" s="23">
         <v>34545</v>
       </c>
-      <c r="C135" s="37">
+      <c r="C135" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -3687,15 +4123,18 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" s="21">
+        <v>34545</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>1944</v>
       </c>
-      <c r="B136" s="38">
+      <c r="B136" s="23">
         <v>33037</v>
       </c>
-      <c r="C136" s="37">
+      <c r="C136" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -3707,15 +4146,18 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136" s="21">
+        <v>33037</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
         <v>1945</v>
       </c>
-      <c r="B137" s="38">
+      <c r="B137" s="23">
         <v>42587</v>
       </c>
-      <c r="C137" s="37">
+      <c r="C137" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -3727,15 +4169,18 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" s="21">
+        <v>42587</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>1946</v>
       </c>
-      <c r="B138" s="38">
+      <c r="B138" s="23">
         <v>45590</v>
       </c>
-      <c r="C138" s="37">
+      <c r="C138" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -3747,15 +4192,18 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" s="21">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>1947</v>
       </c>
-      <c r="B139" s="38">
+      <c r="B139" s="23">
         <v>35920</v>
       </c>
-      <c r="C139" s="37">
+      <c r="C139" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -3767,15 +4215,18 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139" s="21">
+        <v>35920</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>1948</v>
       </c>
-      <c r="B140" s="38">
+      <c r="B140" s="23">
         <v>26664</v>
       </c>
-      <c r="C140" s="37">
+      <c r="C140" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -3787,15 +4238,18 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" s="21">
+        <v>26664</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>1949</v>
       </c>
-      <c r="B141" s="38">
+      <c r="B141" s="23">
         <v>55666</v>
       </c>
-      <c r="C141" s="37">
+      <c r="C141" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -3807,15 +4261,18 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" s="21">
+        <v>55666</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>1950</v>
       </c>
-      <c r="B142" s="38">
+      <c r="B142" s="23">
         <v>45749</v>
       </c>
-      <c r="C142" s="37">
+      <c r="C142" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -3827,15 +4284,18 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142" s="21">
+        <v>45749</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>1951</v>
       </c>
-      <c r="B143" s="38">
+      <c r="B143" s="23">
         <v>2704</v>
       </c>
-      <c r="C143" s="37">
+      <c r="C143" s="22">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -3847,15 +4307,18 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143" s="21">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>1952</v>
       </c>
-      <c r="B144" s="38">
+      <c r="B144" s="23">
         <v>25766</v>
       </c>
-      <c r="C144" s="37">
+      <c r="C144" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -3867,15 +4330,18 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144" s="21">
+        <v>25766</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>1953</v>
       </c>
-      <c r="B145" s="38">
+      <c r="B145" s="23">
         <v>3270</v>
       </c>
-      <c r="C145" s="37">
+      <c r="C145" s="22">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -3887,15 +4353,18 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145" s="21">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>1954</v>
       </c>
-      <c r="B146" s="38">
+      <c r="B146" s="23">
         <v>53584</v>
       </c>
-      <c r="C146" s="37">
+      <c r="C146" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -3907,15 +4376,18 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146" s="21">
+        <v>53584</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>1955</v>
       </c>
-      <c r="B147" s="38">
+      <c r="B147" s="23">
         <v>50580</v>
       </c>
-      <c r="C147" s="37">
+      <c r="C147" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -3927,15 +4399,18 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147" s="21">
+        <v>50580</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>1956</v>
       </c>
-      <c r="B148" s="38">
+      <c r="B148" s="23">
         <v>15640</v>
       </c>
-      <c r="C148" s="37">
+      <c r="C148" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -3947,15 +4422,18 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148" s="21">
+        <v>15640</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>1957</v>
       </c>
-      <c r="B149" s="38">
+      <c r="B149" s="23">
         <v>53414</v>
       </c>
-      <c r="C149" s="37">
+      <c r="C149" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -3967,15 +4445,18 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149" s="21">
+        <v>53414</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>1958</v>
       </c>
-      <c r="B150" s="38">
+      <c r="B150" s="23">
         <v>33704</v>
       </c>
-      <c r="C150" s="37">
+      <c r="C150" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -3987,15 +4468,18 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150" s="21">
+        <v>33704</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>1959</v>
       </c>
-      <c r="B151" s="38">
+      <c r="B151" s="23">
         <v>36600</v>
       </c>
-      <c r="C151" s="37">
+      <c r="C151" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4007,15 +4491,18 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151" s="21">
+        <v>36600</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>1960</v>
       </c>
-      <c r="B152" s="38">
+      <c r="B152" s="23">
         <v>2365</v>
       </c>
-      <c r="C152" s="37">
+      <c r="C152" s="22">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -4027,15 +4514,18 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152" s="21">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>1961</v>
       </c>
-      <c r="B153" s="38">
+      <c r="B153" s="23">
         <v>24964</v>
       </c>
-      <c r="C153" s="37">
+      <c r="C153" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4047,15 +4537,18 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153" s="21">
+        <v>24964</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
         <v>1962</v>
       </c>
-      <c r="B154" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C154" s="37">
+      <c r="B154" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="22">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -4067,15 +4560,18 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154" s="21">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
         <v>1963</v>
       </c>
-      <c r="B155" s="38">
+      <c r="B155" s="23">
         <v>19936</v>
       </c>
-      <c r="C155" s="37">
+      <c r="C155" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4087,15 +4583,18 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155" s="21">
+        <v>19936</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
         <v>1964</v>
       </c>
-      <c r="B156" s="38">
+      <c r="B156" s="23">
         <v>20426</v>
       </c>
-      <c r="C156" s="37">
+      <c r="C156" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4107,15 +4606,18 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156" s="21">
+        <v>20426</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
         <v>1965</v>
       </c>
-      <c r="B157" s="38">
+      <c r="B157" s="23">
         <v>49873</v>
       </c>
-      <c r="C157" s="37">
+      <c r="C157" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4127,15 +4629,18 @@
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157" s="21">
+        <v>49873</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
         <v>1966</v>
       </c>
-      <c r="B158" s="38">
+      <c r="B158" s="23">
         <v>48677</v>
       </c>
-      <c r="C158" s="37">
+      <c r="C158" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4147,15 +4652,18 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158" s="21">
+        <v>48677</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>1967</v>
       </c>
-      <c r="B159" s="38">
+      <c r="B159" s="23">
         <v>43758</v>
       </c>
-      <c r="C159" s="37">
+      <c r="C159" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4167,15 +4675,18 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159" s="21">
+        <v>43758</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>1968</v>
       </c>
-      <c r="B160" s="38">
+      <c r="B160" s="23">
         <v>57150</v>
       </c>
-      <c r="C160" s="37">
+      <c r="C160" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4187,15 +4698,18 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160" s="21">
+        <v>57150</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>1969</v>
       </c>
-      <c r="B161" s="38">
+      <c r="B161" s="23">
         <v>59536</v>
       </c>
-      <c r="C161" s="37">
+      <c r="C161" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4207,15 +4721,18 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161" s="21">
+        <v>59536</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>1970</v>
       </c>
-      <c r="B162" s="38">
+      <c r="B162" s="23">
         <v>19381</v>
       </c>
-      <c r="C162" s="37">
+      <c r="C162" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4227,15 +4744,18 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162" s="21">
+        <v>19381</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>1971</v>
       </c>
-      <c r="B163" s="38">
+      <c r="B163" s="23">
         <v>23238</v>
       </c>
-      <c r="C163" s="37">
+      <c r="C163" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4247,15 +4767,18 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163" s="21">
+        <v>23238</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>1972</v>
       </c>
-      <c r="B164" s="38">
+      <c r="B164" s="23">
         <v>42435</v>
       </c>
-      <c r="C164" s="37">
+      <c r="C164" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4267,15 +4790,18 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G164" s="21">
+        <v>42435</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>1973</v>
       </c>
-      <c r="B165" s="38">
+      <c r="B165" s="23">
         <v>34739</v>
       </c>
-      <c r="C165" s="37">
+      <c r="C165" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4287,15 +4813,18 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165" s="21">
+        <v>34739</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>1974</v>
       </c>
-      <c r="B166" s="38">
+      <c r="B166" s="23">
         <v>12176</v>
       </c>
-      <c r="C166" s="37">
+      <c r="C166" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4307,15 +4836,18 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G166" s="21">
+        <v>12176</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>1975</v>
       </c>
-      <c r="B167" s="38">
+      <c r="B167" s="23">
         <v>47107</v>
       </c>
-      <c r="C167" s="37">
+      <c r="C167" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4327,15 +4859,18 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G167" s="21">
+        <v>47107</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>1976</v>
       </c>
-      <c r="B168" s="38">
+      <c r="B168" s="23">
         <v>49764</v>
       </c>
-      <c r="C168" s="37">
+      <c r="C168" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4347,15 +4882,18 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G168" s="21">
+        <v>49764</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>1977</v>
       </c>
-      <c r="B169" s="38">
+      <c r="B169" s="23">
         <v>34571</v>
       </c>
-      <c r="C169" s="37">
+      <c r="C169" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4367,15 +4905,18 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169" s="21">
+        <v>34571</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="4">
         <v>1978</v>
       </c>
-      <c r="B170" s="38">
+      <c r="B170" s="23">
         <v>15640</v>
       </c>
-      <c r="C170" s="37">
+      <c r="C170" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4387,15 +4928,18 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170" s="21">
+        <v>15640</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="4">
         <v>1979</v>
       </c>
-      <c r="B171" s="38">
+      <c r="B171" s="23">
         <v>40286</v>
       </c>
-      <c r="C171" s="37">
+      <c r="C171" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4407,15 +4951,18 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G171" s="21">
+        <v>40286</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="4">
         <v>1980</v>
       </c>
-      <c r="B172" s="38">
+      <c r="B172" s="23">
         <v>60076</v>
       </c>
-      <c r="C172" s="37">
+      <c r="C172" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4427,15 +4974,18 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G172" s="21">
+        <v>60076</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="4">
         <v>1981</v>
       </c>
-      <c r="B173" s="38">
+      <c r="B173" s="23">
         <v>23786</v>
       </c>
-      <c r="C173" s="37">
+      <c r="C173" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4447,15 +4997,18 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G173" s="21">
+        <v>23786</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="4">
         <v>1982</v>
       </c>
-      <c r="B174" s="38">
+      <c r="B174" s="23">
         <v>21515</v>
       </c>
-      <c r="C174" s="37">
+      <c r="C174" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4467,15 +5020,18 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G174" s="21">
+        <v>21515</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="4">
         <v>1983</v>
       </c>
-      <c r="B175" s="38">
+      <c r="B175" s="23">
         <v>53288</v>
       </c>
-      <c r="C175" s="37">
+      <c r="C175" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4487,15 +5043,18 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G175" s="21">
+        <v>53288</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="4">
         <v>1984</v>
       </c>
-      <c r="B176" s="38">
+      <c r="B176" s="23">
         <v>50076</v>
       </c>
-      <c r="C176" s="37">
+      <c r="C176" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4507,15 +5066,18 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176" s="21">
+        <v>50076</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="4">
         <v>1985</v>
       </c>
-      <c r="B177" s="38">
+      <c r="B177" s="23">
         <v>63369</v>
       </c>
-      <c r="C177" s="37">
+      <c r="C177" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4527,15 +5089,18 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177" s="21">
+        <v>63369</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="4">
         <v>1986</v>
       </c>
-      <c r="B178" s="38">
+      <c r="B178" s="23">
         <v>3772</v>
       </c>
-      <c r="C178" s="37">
+      <c r="C178" s="22">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -4547,15 +5112,18 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178" s="21">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="4">
         <v>1987</v>
       </c>
-      <c r="B179" s="38">
+      <c r="B179" s="23">
         <v>20064</v>
       </c>
-      <c r="C179" s="37">
+      <c r="C179" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4567,15 +5135,18 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179" s="21">
+        <v>20064</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="4">
         <v>1988</v>
       </c>
-      <c r="B180" s="38">
+      <c r="B180" s="23">
         <v>21583</v>
       </c>
-      <c r="C180" s="37">
+      <c r="C180" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4587,15 +5158,18 @@
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180" s="21">
+        <v>21583</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="4">
         <v>1989</v>
       </c>
-      <c r="B181" s="38">
+      <c r="B181" s="23">
         <v>61714</v>
       </c>
-      <c r="C181" s="37">
+      <c r="C181" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4607,15 +5181,18 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G181" s="21">
+        <v>61714</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="4">
         <v>1990</v>
       </c>
-      <c r="B182" s="38">
+      <c r="B182" s="23">
         <v>32522</v>
       </c>
-      <c r="C182" s="37">
+      <c r="C182" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4627,15 +5204,18 @@
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G182" s="21">
+        <v>32522</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="4">
         <v>1991</v>
       </c>
-      <c r="B183" s="38">
+      <c r="B183" s="23">
         <v>47996</v>
       </c>
-      <c r="C183" s="37">
+      <c r="C183" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4647,15 +5227,18 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G183" s="21">
+        <v>47996</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="4">
         <v>1992</v>
       </c>
-      <c r="B184" s="38">
+      <c r="B184" s="23">
         <v>31466</v>
       </c>
-      <c r="C184" s="37">
+      <c r="C184" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4667,15 +5250,18 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G184" s="21">
+        <v>31466</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="4">
         <v>1993</v>
       </c>
-      <c r="B185" s="38">
+      <c r="B185" s="23">
         <v>47884</v>
       </c>
-      <c r="C185" s="37">
+      <c r="C185" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4687,15 +5273,18 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G185" s="21">
+        <v>47884</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="4">
         <v>1994</v>
       </c>
-      <c r="B186" s="38">
+      <c r="B186" s="23">
         <v>49595</v>
       </c>
-      <c r="C186" s="37">
+      <c r="C186" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4707,15 +5296,18 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186" s="21">
+        <v>49595</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="4">
         <v>1995</v>
       </c>
-      <c r="B187" s="38">
+      <c r="B187" s="23">
         <v>45495</v>
       </c>
-      <c r="C187" s="37">
+      <c r="C187" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4727,15 +5319,18 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187" s="21">
+        <v>45495</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="4">
         <v>1996</v>
       </c>
-      <c r="B188" s="38">
+      <c r="B188" s="23">
         <v>56169</v>
       </c>
-      <c r="C188" s="37">
+      <c r="C188" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4747,15 +5342,18 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G188" s="21">
+        <v>56169</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="4">
         <v>1997</v>
       </c>
-      <c r="B189" s="38">
+      <c r="B189" s="23">
         <v>43728</v>
       </c>
-      <c r="C189" s="37">
+      <c r="C189" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4767,15 +5365,18 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189" s="21">
+        <v>43728</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>1998</v>
       </c>
-      <c r="B190" s="38">
+      <c r="B190" s="23">
         <v>21856</v>
       </c>
-      <c r="C190" s="37">
+      <c r="C190" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4787,15 +5388,18 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G190" s="21">
+        <v>21856</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>1999</v>
       </c>
-      <c r="B191" s="38">
+      <c r="B191" s="23">
         <v>65379</v>
       </c>
-      <c r="C191" s="37">
+      <c r="C191" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4807,15 +5411,18 @@
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G191" s="21">
+        <v>65379</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>2000</v>
       </c>
-      <c r="B192" s="38">
+      <c r="B192" s="23">
         <v>49740</v>
       </c>
-      <c r="C192" s="37">
+      <c r="C192" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4827,15 +5434,18 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192" s="21">
+        <v>49740</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>2001</v>
       </c>
-      <c r="B193" s="38">
+      <c r="B193" s="23">
         <v>18795</v>
       </c>
-      <c r="C193" s="37">
+      <c r="C193" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -4847,15 +5457,18 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G193" s="21">
+        <v>18795</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>2002</v>
       </c>
-      <c r="B194" s="38">
+      <c r="B194" s="23">
         <v>8103</v>
       </c>
-      <c r="C194" s="37">
+      <c r="C194" s="22">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -4867,15 +5480,18 @@
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G194" s="21">
+        <v>8103</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>2003</v>
       </c>
-      <c r="B195" s="38">
+      <c r="B195" s="23">
         <v>42473</v>
       </c>
-      <c r="C195" s="37">
+      <c r="C195" s="22">
         <f t="shared" ref="C195:C208" si="10">LEN(B195)</f>
         <v>5</v>
       </c>
@@ -4887,15 +5503,18 @@
         <f t="shared" ref="F195:F208" si="11">RIGHT(B195,1)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G195" s="21">
+        <v>42473</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>2004</v>
       </c>
-      <c r="B196" s="38">
+      <c r="B196" s="23">
         <v>54600</v>
       </c>
-      <c r="C196" s="37">
+      <c r="C196" s="22">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -4907,15 +5526,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G196" s="21">
+        <v>54600</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>2005</v>
       </c>
-      <c r="B197" s="38">
+      <c r="B197" s="23">
         <v>20085</v>
       </c>
-      <c r="C197" s="37">
+      <c r="C197" s="22">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -4927,15 +5549,18 @@
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G197" s="21">
+        <v>20085</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>2006</v>
       </c>
-      <c r="B198" s="38">
+      <c r="B198" s="23">
         <v>20297</v>
       </c>
-      <c r="C198" s="37">
+      <c r="C198" s="22">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -4947,15 +5572,18 @@
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G198" s="21">
+        <v>20297</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>2007</v>
       </c>
-      <c r="B199" s="38">
+      <c r="B199" s="23">
         <v>6381</v>
       </c>
-      <c r="C199" s="37">
+      <c r="C199" s="22">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
@@ -4967,15 +5595,18 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G199" s="21">
+        <v>6381</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>2008</v>
       </c>
-      <c r="B200" s="38">
+      <c r="B200" s="23">
         <v>32365</v>
       </c>
-      <c r="C200" s="37">
+      <c r="C200" s="22">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -4987,15 +5618,18 @@
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G200" s="21">
+        <v>32365</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>2009</v>
       </c>
-      <c r="B201" s="38">
+      <c r="B201" s="23">
         <v>78294</v>
       </c>
-      <c r="C201" s="37">
+      <c r="C201" s="22">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -5007,15 +5641,18 @@
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G201" s="21">
+        <v>78294</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>2010</v>
       </c>
-      <c r="B202" s="38">
+      <c r="B202" s="23">
         <v>79250</v>
       </c>
-      <c r="C202" s="37">
+      <c r="C202" s="22">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -5027,15 +5664,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G202" s="21">
+        <v>79250</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>2011</v>
       </c>
-      <c r="B203" s="38">
+      <c r="B203" s="23">
         <v>58268</v>
       </c>
-      <c r="C203" s="37">
+      <c r="C203" s="22">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -5047,15 +5687,18 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G203" s="21">
+        <v>58268</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>2012</v>
       </c>
-      <c r="B204" s="38">
+      <c r="B204" s="23">
         <v>76058</v>
       </c>
-      <c r="C204" s="37">
+      <c r="C204" s="22">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -5067,15 +5710,18 @@
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G204" s="21">
+        <v>76058</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>2013</v>
       </c>
-      <c r="B205" s="38">
+      <c r="B205" s="23">
         <v>62246</v>
       </c>
-      <c r="C205" s="37">
+      <c r="C205" s="22">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -5087,15 +5733,18 @@
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G205" s="21">
+        <v>62246</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>2014</v>
       </c>
-      <c r="B206" s="38">
+      <c r="B206" s="23">
         <v>13437</v>
       </c>
-      <c r="C206" s="37">
+      <c r="C206" s="22">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -5107,15 +5756,18 @@
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G206" s="21">
+        <v>13437</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>2015</v>
       </c>
-      <c r="B207" s="38">
+      <c r="B207" s="23">
         <v>79140</v>
       </c>
-      <c r="C207" s="37">
+      <c r="C207" s="22">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -5127,15 +5779,18 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G207" s="21">
+        <v>79140</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="9">
         <v>2016</v>
       </c>
-      <c r="B208" s="38" t="s">
+      <c r="B208" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C208" s="37">
+      <c r="C208" s="22">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
@@ -5147,21 +5802,28 @@
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
+      <c r="G208" s="21">
+        <v>66513</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H7:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H7:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
   </mergeCells>
+  <conditionalFormatting sqref="G2:G208">
+    <cfRule type="top10" dxfId="0" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
@@ -5355,11 +6017,11 @@
         <f t="shared" si="3"/>
         <v>32026</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -5384,9 +6046,9 @@
         <f t="shared" si="3"/>
         <v>8705</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="27"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -5412,11 +6074,11 @@
         <f t="shared" si="3"/>
         <v>15389</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="36">
         <v>0</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -5442,11 +6104,11 @@
         <f t="shared" si="3"/>
         <v>2457</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="27">
         <v>1</v>
       </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="29"/>
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -5472,11 +6134,11 @@
         <f t="shared" si="3"/>
         <v>8364</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="27">
         <v>2</v>
       </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="29"/>
       <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -5502,11 +6164,11 @@
         <f t="shared" si="3"/>
         <v>9311</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="27">
         <v>3</v>
       </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="29"/>
       <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -5532,11 +6194,11 @@
         <f t="shared" si="3"/>
         <v>1879</v>
       </c>
-      <c r="I13" s="31">
-        <v>4</v>
-      </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="33"/>
+      <c r="I13" s="27">
+        <v>4</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
       <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -5562,11 +6224,11 @@
         <f t="shared" si="3"/>
         <v>2124</v>
       </c>
-      <c r="I14" s="31">
-        <v>5</v>
-      </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="33"/>
+      <c r="I14" s="27">
+        <v>5</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="29"/>
       <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -5592,11 +6254,11 @@
         <f t="shared" si="3"/>
         <v>9275</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="27">
         <v>6</v>
       </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="33"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="29"/>
       <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -5622,11 +6284,11 @@
         <f t="shared" si="3"/>
         <v>14544</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="27">
         <v>7</v>
       </c>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="29"/>
       <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -5652,11 +6314,11 @@
         <f t="shared" si="3"/>
         <v>6835</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="27">
         <v>8</v>
       </c>
-      <c r="J17" s="32"/>
-      <c r="K17" s="33"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5682,11 +6344,11 @@
         <f t="shared" si="3"/>
         <v>523</v>
       </c>
-      <c r="I18" s="34">
+      <c r="I18" s="24">
         <v>9</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="36"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -10252,17 +10914,17 @@
   </sheetData>
   <sheetProtection password="F398" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="11">
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="I7:K8"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
